--- a/players_stats/Darius Johnson-Odom.xlsx
+++ b/players_stats/Darius Johnson-Odom.xlsx
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1992-93</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -574,97 +574,95 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>356</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0.383</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>3</v>
       </c>
-      <c r="O2" t="n">
-        <v>14</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>54</v>
-      </c>
-      <c r="R2" t="n">
-        <v>135</v>
-      </c>
       <c r="S2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.393</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>59</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.6779999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 188</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -676,15 +674,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1993-94</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -698,97 +696,97 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>0.315</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>17</v>
-      </c>
-      <c r="R3" t="n">
-        <v>53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="U3" t="n">
-        <v>13</v>
-      </c>
-      <c r="V3" t="n">
-        <v>21</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>4</v>
-      </c>
       <c r="AB3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AF3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 188</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -816,97 +814,97 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>475</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="M4" t="n">
-        <v>0.365</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
         <v>3</v>
       </c>
-      <c r="O4" t="n">
-        <v>15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>71</v>
-      </c>
-      <c r="R4" t="n">
-        <v>188</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.3779999999999999</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.3720000000000001</v>
-      </c>
-      <c r="U4" t="n">
-        <v>53</v>
-      </c>
-      <c r="V4" t="n">
-        <v>80</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.6629999999999999</v>
-      </c>
-      <c r="X4" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>30</v>
-      </c>
       <c r="AF4" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 188</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
